--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/图片导入模板.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/图片导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Person\OpenSource\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6414039-4BA0-46B8-BAE1-A63F346ACD35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA5203E-216A-4E5C-AB91-32B8CB4E40A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="1" r:id="rId1"/>
@@ -384,13 +384,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>383381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1371600</xdr:rowOff>
+      <xdr:rowOff>1216818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -406,15 +406,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="2097881"/>
+          <a:ext cx="1333500" cy="833437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,13 +1443,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>415524</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2918226</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -1462,15 +1467,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7664049" y="419100"/>
+          <a:ext cx="2502702" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1482,13 +1492,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -1506,15 +1516,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058150" y="1943100"/>
+          <a:ext cx="1714500" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2856,7 +2871,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/图片导入模板.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/图片导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\github\dotnetcore\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4291B1D6-E507-48DC-A6ED-C895B5265CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FB239A-9677-4D25-A5CA-13272B613C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="75" windowWidth="25890" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="1" r:id="rId1"/>
@@ -292,26 +292,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -343,8 +342,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -387,8 +386,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -431,8 +430,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -475,8 +474,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -519,8 +518,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -563,8 +562,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -607,8 +606,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -651,8 +650,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -695,8 +694,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -739,8 +738,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -783,8 +782,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -827,8 +826,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -871,8 +870,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -915,8 +914,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -959,8 +958,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -1003,8 +1002,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -1047,8 +1046,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -1091,8 +1090,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -1135,8 +1134,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -1179,8 +1178,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -1223,8 +1222,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -1267,8 +1266,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -1311,8 +1310,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -1355,8 +1354,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
@@ -2460,22 +2459,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>693</xdr:colOff>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1760913</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>835429</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="图片 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA609B83-6186-4CB7-9D5E-DB7C50FE7A2B}"/>
+      <xdr:rowOff>1597429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559F0950-DDD5-36BE-85E0-E07ADAB95C33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2496,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="1714500"/>
+          <a:off x="2225040" y="2476500"/>
           <a:ext cx="1334193" cy="835429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2831,36 +2830,36 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="10" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2877,11 +2876,11 @@
       <c r="E2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>31734.368842592594</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="120" customHeight="1">
+    <row r="3" spans="1:7" ht="216.6" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2894,7 +2893,7 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>41544.587083333332</v>
       </c>
     </row>
@@ -2911,7 +2910,7 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>44036.942847222221</v>
       </c>
     </row>
@@ -2928,7 +2927,7 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>43887.443067129629</v>
       </c>
     </row>
@@ -2945,7 +2944,7 @@
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>37713.126111111109</v>
       </c>
     </row>
@@ -2962,7 +2961,7 @@
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>29421.237777777777</v>
       </c>
     </row>
@@ -2979,7 +2978,7 @@
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>38467.247974537036</v>
       </c>
     </row>
@@ -2996,7 +2995,7 @@
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>3892.7734953703703</v>
       </c>
     </row>
@@ -3013,7 +3012,7 @@
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>30875.279652777779</v>
       </c>
     </row>
@@ -3030,7 +3029,7 @@
       <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>5145.6406018518519</v>
       </c>
     </row>
@@ -3047,7 +3046,7 @@
       <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>20163.933229166665</v>
       </c>
     </row>
@@ -3064,7 +3063,7 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>11380.310289351852</v>
       </c>
     </row>
@@ -3081,7 +3080,7 @@
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>17628.732407407406</v>
       </c>
     </row>
@@ -3098,7 +3097,7 @@
       <c r="E15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>7902.8763541666667</v>
       </c>
     </row>
@@ -3115,7 +3114,7 @@
       <c r="E16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>27129.003055555557</v>
       </c>
     </row>
@@ -3132,7 +3131,7 @@
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>24824.230486111112</v>
       </c>
     </row>
@@ -3149,7 +3148,7 @@
       <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>9980.7254282407412</v>
       </c>
     </row>
@@ -3166,7 +3165,7 @@
       <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>2312.3471296296298</v>
       </c>
     </row>
@@ -3183,7 +3182,7 @@
       <c r="E20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>13834.747939814815</v>
       </c>
     </row>
@@ -3200,7 +3199,7 @@
       <c r="E21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>41952.014305555553</v>
       </c>
     </row>
@@ -3217,7 +3216,7 @@
       <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>2468.718287037037</v>
       </c>
     </row>
@@ -3234,7 +3233,7 @@
       <c r="E23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>30218.143090277779</v>
       </c>
     </row>
@@ -3251,7 +3250,7 @@
       <c r="E24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>9627.0622222222228</v>
       </c>
     </row>
@@ -3268,7 +3267,7 @@
       <c r="E25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>5484.8139351851851</v>
       </c>
     </row>
@@ -3285,7 +3284,7 @@
       <c r="E26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>1326.4567129629629</v>
       </c>
     </row>
